--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2095585.196673776</v>
+        <v>2171114.86633858</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>146.4340874029168</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>96.53241147262429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>201.0891638436807</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,10 +946,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>126.9105741582254</v>
+        <v>73.52907136089628</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>101.3841057701883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>43.16288100277492</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>96.48367255098569</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>29.16062564309963</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>90.90308408509682</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -1342,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>200.5196897930041</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>132.5906791667252</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>149.0799667719511</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,7 +1824,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>37.73441534125597</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2450749839002</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>62.55231724873094</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2290,16 +2292,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>82.65428220450593</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>191.6534898356754</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>88.23851788996291</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>159.9578729035108</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>29.09049841396027</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>26.97444673954966</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>206.806426921486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>161.4046520073173</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>283.1192119576596</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>151.6248994057463</v>
+        <v>139.0551934695318</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.64843562452403</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002169</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4071,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4138,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>170.5809693952292</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>134.2188895428485</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.68094731003</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.188433646014</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="Y2" t="n">
-        <v>1268.68094731003</v>
+        <v>2494.20718194981</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1732.515907621104</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4571,46 +4573,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2119.115747685226</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="Y5" t="n">
-        <v>2119.115747685226</v>
+        <v>2177.709280319473</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4749,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>684.5301145066618</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>684.5301145066618</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>684.5301145066618</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>684.5301145066618</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>429.8456263007749</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>429.8456263007749</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4802,10 +4804,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2667.693913600951</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2491.516425915121</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2272.881758887183</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2272.881758887183</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843237</v>
+        <v>1941.818871543613</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573123</v>
+        <v>1941.818871543613</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312043</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="Y8" t="n">
-        <v>1331.061315312043</v>
+        <v>1568.353113282533</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.020265289186</v>
+        <v>295.8809182883535</v>
       </c>
       <c r="C10" t="n">
-        <v>348.020265289186</v>
+        <v>295.8809182883535</v>
       </c>
       <c r="D10" t="n">
-        <v>348.020265289186</v>
+        <v>145.7642788760178</v>
       </c>
       <c r="E10" t="n">
-        <v>348.020265289186</v>
+        <v>145.7642788760178</v>
       </c>
       <c r="F10" t="n">
-        <v>348.020265289186</v>
+        <v>145.7642788760178</v>
       </c>
       <c r="G10" t="n">
-        <v>348.020265289186</v>
+        <v>145.7642788760178</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>145.7642788760178</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036446</v>
@@ -4969,43 +4971,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942406</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942406</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>348.020265289186</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>348.020265289186</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V10" t="n">
-        <v>348.020265289186</v>
+        <v>295.8809182883535</v>
       </c>
       <c r="W10" t="n">
-        <v>348.020265289186</v>
+        <v>295.8809182883535</v>
       </c>
       <c r="X10" t="n">
-        <v>348.020265289186</v>
+        <v>295.8809182883535</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.020265289186</v>
+        <v>295.8809182883535</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5030,22 +5032,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>1275.130855347409</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>468.5954956259889</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.8029164824588</v>
       </c>
     </row>
     <row r="17">
@@ -5501,49 +5503,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5580,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>453.9259926442957</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>453.9259926442957</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>453.9259926442957</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>453.9259926442957</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>674.7185717878258</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>674.7185717878258</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>453.9259926442957</v>
       </c>
     </row>
     <row r="20">
@@ -5729,28 +5731,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5768,13 +5770,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>675.007103038344</v>
+        <v>716.8555221680796</v>
       </c>
       <c r="C22" t="n">
-        <v>675.007103038344</v>
+        <v>716.8555221680796</v>
       </c>
       <c r="D22" t="n">
-        <v>675.007103038344</v>
+        <v>566.7388827557438</v>
       </c>
       <c r="E22" t="n">
-        <v>527.0940094559509</v>
+        <v>418.8257891733507</v>
       </c>
       <c r="F22" t="n">
-        <v>527.0940094559509</v>
+        <v>271.9358416754403</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>271.9358416754403</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5938,22 +5940,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>675.007103038344</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W22" t="n">
-        <v>675.007103038344</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X22" t="n">
-        <v>675.007103038344</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="Y22" t="n">
-        <v>675.007103038344</v>
+        <v>898.5039869983193</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,16 +6001,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>3443.999848753676</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>3751.319982033638</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>4081.182609697671</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1415.427096613957</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1415.427096613957</v>
       </c>
       <c r="T25" t="n">
-        <v>1305.326886885503</v>
+        <v>1191.641681403463</v>
       </c>
       <c r="U25" t="n">
-        <v>1016.198248099061</v>
+        <v>1191.641681403463</v>
       </c>
       <c r="V25" t="n">
-        <v>761.5137598931742</v>
+        <v>1191.641681403463</v>
       </c>
       <c r="W25" t="n">
-        <v>472.0965898562135</v>
+        <v>902.2245113665022</v>
       </c>
       <c r="X25" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6248,28 +6250,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6306,16 +6308,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>570.0299571250974</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>816.7950850315615</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M27" t="n">
-        <v>1124.115218311523</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.977845975556</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
         <v>2123.441607278215</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>355.2830904386603</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>186.3469075107534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>186.3469075107534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>186.3469075107534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>186.3469075107534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W28" t="n">
-        <v>985.7136853104475</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="X28" t="n">
-        <v>757.7241344124302</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y28" t="n">
-        <v>536.9315552689001</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6488,25 +6490,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916676</v>
+        <v>3806.831696841473</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>3806.831696841473</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>3656.715057429137</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>3656.715057429137</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>3656.715057429137</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>3488.539735748958</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
         <v>4411.546387431056</v>
@@ -6643,28 +6645,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>4833.607657115757</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>4633.68764703131</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T31" t="n">
-        <v>4633.68764703131</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U31" t="n">
-        <v>4633.68764703131</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V31" t="n">
-        <v>4379.003158825423</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W31" t="n">
-        <v>4089.585988788463</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="X31" t="n">
-        <v>3861.596437890445</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="Y31" t="n">
-        <v>3640.803858746915</v>
+        <v>3806.831696841473</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,22 +6685,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6883,22 +6885,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1090.100879744681</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6914,28 +6916,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6953,31 +6955,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -7011,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1335.881268530309</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U37" t="n">
-        <v>789.2318432855265</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V37" t="n">
-        <v>534.5473550796396</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W37" t="n">
-        <v>245.130185042679</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X37" t="n">
-        <v>245.130185042679</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y37" t="n">
-        <v>245.130185042679</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,22 +7192,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
@@ -7214,7 +7216,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7248,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>545.1765965867977</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="C40" t="n">
-        <v>545.1765965867977</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="D40" t="n">
-        <v>545.1765965867977</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="E40" t="n">
-        <v>397.2635030044046</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="F40" t="n">
-        <v>250.3735555064942</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170374</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y40" t="n">
-        <v>726.8250614170374</v>
+        <v>850.2141304319072</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7433,10 +7435,10 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7451,10 +7453,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916676</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916676</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916676</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916676</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4744.160657054477</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4520.375241843983</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4231.246603057541</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>3976.562114851654</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>3687.144944814693</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>3459.155393916676</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916676</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7636,34 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899126</v>
@@ -7670,13 +7672,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7710,37 +7712,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636264</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.91651652632</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119731</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035283</v>
       </c>
       <c r="T46" t="n">
-        <v>1326.612261067772</v>
+        <v>1187.921157035283</v>
       </c>
       <c r="U46" t="n">
-        <v>1037.48362228133</v>
+        <v>1187.921157035283</v>
       </c>
       <c r="V46" t="n">
-        <v>782.7991340754431</v>
+        <v>1052.346521133416</v>
       </c>
       <c r="W46" t="n">
-        <v>493.3819640384826</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="X46" t="n">
-        <v>265.3924131404652</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="Y46" t="n">
-        <v>265.3924131404652</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719076</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>360.5026862907246</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,7 +9418,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776733</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9954,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>159.0121003135246</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>87.16935584025373</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928253</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776707</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>47.24130101521209</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>30.75201340998615</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23701,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>107.6866326816753</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2484934794774176</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>86.3615111188052</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>27.31007019928686</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>29.89407122271382</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>78.25505057341468</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>65.75178248552632</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>119.8233299535759</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.98990566424314</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>14.74113413690327</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25360,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>36.51615797628597</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>3.118140440917728</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>14.86866905763131</v>
+        <v>27.43837499384583</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -25606,16 +25608,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25834,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338635</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>50.96659166316005</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>117.9187537809795</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856805.715276347</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.715276347</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049988</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049988</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049989</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049989</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.238904999</v>
-      </c>
       <c r="E2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="G2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="H2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="I2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="M2" t="n">
         <v>547440.6836327917</v>
       </c>
-      <c r="I2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="N2" t="n">
-        <v>547440.6836327924</v>
-      </c>
       <c r="O2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.8367399914423e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.686857128</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.6868571279</v>
       </c>
-      <c r="C4" t="n">
-        <v>183348.686857128</v>
-      </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773397</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.483517734</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773397</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773385</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
-      </c>
       <c r="E5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281446.405230083</v>
+        <v>-281446.4052300831</v>
       </c>
       <c r="C6" t="n">
+        <v>308521.4739844614</v>
+      </c>
+      <c r="D6" t="n">
         <v>308521.4739844615</v>
       </c>
-      <c r="D6" t="n">
-        <v>308521.4739844616</v>
-      </c>
       <c r="E6" t="n">
-        <v>-106139.1623105546</v>
+        <v>-106139.1623105548</v>
       </c>
       <c r="F6" t="n">
-        <v>419020.8741663414</v>
+        <v>419020.8741663417</v>
       </c>
       <c r="G6" t="n">
         <v>419020.8741663414</v>
       </c>
       <c r="H6" t="n">
-        <v>419020.8741663411</v>
+        <v>419020.8741663419</v>
       </c>
       <c r="I6" t="n">
-        <v>419020.8741663417</v>
+        <v>419020.8741663416</v>
       </c>
       <c r="J6" t="n">
-        <v>242597.6549737488</v>
+        <v>242597.6549737486</v>
       </c>
       <c r="K6" t="n">
-        <v>419020.8741663418</v>
+        <v>419020.8741663415</v>
       </c>
       <c r="L6" t="n">
-        <v>419020.8741663417</v>
+        <v>419020.8741663416</v>
       </c>
       <c r="M6" t="n">
-        <v>284219.8589325044</v>
+        <v>284219.8589325038</v>
       </c>
       <c r="N6" t="n">
-        <v>419020.8741663419</v>
+        <v>419020.8741663415</v>
       </c>
       <c r="O6" t="n">
-        <v>419020.8741663414</v>
+        <v>419020.8741663415</v>
       </c>
       <c r="P6" t="n">
-        <v>419020.8741663414</v>
+        <v>419020.8741663406</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>27.98162540605469</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>289.7055271834293</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>85.19271039829701</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>242.8205265202437</v>
+        <v>296.2020293175727</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>78.44787441174897</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>103.5023109773829</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>286.2501691124949</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>25.31777693171207</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>44.0625377072414</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>24.51541566508021</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -30289,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
     </row>
     <row r="39">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31516,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>609.760391246749</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36138,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
@@ -36215,7 +36217,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336976</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>309.5875389014639</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>336.4270607962781</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37634,10 +37636,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221054</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K45" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.502597509196</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2171114.86633858</v>
+        <v>2164097.851446868</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.01104463634039</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>146.4340874029168</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10.03156470826291</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>201.0891638436807</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="X5" t="n">
-        <v>73.52907136089628</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.3841057701883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1077,7 +1077,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>28.11374845278241</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>313.7802763660591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>29.16062564309963</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>90.90308408509682</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.5906791667252</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>104.3001463993603</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>149.0799667719511</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,7 +1824,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527406</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>37.73441534125597</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>169.7438101404423</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>62.55231724873094</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>82.65428220450593</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>47.94499047072873</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>119.5716530623856</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>159.9578729035108</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>29.09049841396027</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>116.8645225501837</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>23.54872654977472</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>161.4046520073173</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>32.89657674137945</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.0551934695318</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.64843562452403</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>134.2188895428485</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2107.607341885688</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2494.20718194981</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2494.20718194981</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2494.20718194981</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2494.20718194981</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2494.20718194981</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2494.20718194981</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>2494.20718194981</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>64.07587546507446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>64.07587546507446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>64.07587546507446</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>525.0086166875648</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>525.0086166875648</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>235.5914466506042</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1791.109440255352</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X5" t="n">
-        <v>2567.848612295285</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>2177.709280319473</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.9282174162494</v>
+        <v>699.731258496553</v>
       </c>
       <c r="C7" t="n">
-        <v>404.9282174162494</v>
+        <v>699.731258496553</v>
       </c>
       <c r="D7" t="n">
-        <v>404.9282174162494</v>
+        <v>699.731258496553</v>
       </c>
       <c r="E7" t="n">
-        <v>404.9282174162494</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162494</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.731258496553</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.731258496553</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.731258496553</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.731258496553</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.731258496553</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.731258496553</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.731258496553</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.731258496553</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629043</v>
+        <v>699.731258496553</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.353113282533</v>
+        <v>1704.018810322078</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1335.056293381666</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2667.693913600951</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2491.516425915121</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2272.881758887183</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2272.881758887183</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1941.818871543613</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>1941.818871543613</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X8" t="n">
-        <v>1568.353113282533</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.353113282533</v>
+        <v>2090.6186503862</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>295.8809182883535</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>295.8809182883535</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>145.7642788760178</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>145.7642788760178</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>145.7642788760178</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>145.7642788760178</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>145.7642788760178</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>295.8809182883535</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>295.8809182883535</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>295.8809182883535</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>295.8809182883535</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5020,13 +5020,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5041,28 +5041,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5074,13 +5074,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347409</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>1275.130855347409</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X13" t="n">
-        <v>1275.130855347409</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y13" t="n">
-        <v>1275.130855347409</v>
+        <v>531.109187020113</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5290,13 +5290,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5317,7 +5317,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5436,16 +5436,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609669</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>696.5850465240062</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>468.5954956259889</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.8029164824588</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5503,13 +5503,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5530,34 +5530,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>559.3999450277967</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619849</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>453.9259926442957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>453.9259926442957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>453.9259926442957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>453.9259926442957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5676,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247865</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247865</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878258</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X19" t="n">
-        <v>674.7185717878258</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y19" t="n">
-        <v>453.9259926442957</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>716.8555221680796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>716.8555221680796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>566.7388827557438</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>418.8257891733507</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>271.9358416754403</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>271.9358416754403</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>898.5039869983193</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>898.5039869983193</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>898.5039869983193</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3443.999848753676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3751.319982033638</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>674.2349604684848</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C25" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1415.427096613957</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1415.427096613957</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1191.641681403463</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1191.641681403463</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>1191.641681403463</v>
+        <v>1115.626468605467</v>
       </c>
       <c r="W25" t="n">
-        <v>902.2245113665022</v>
+        <v>826.2092985685065</v>
       </c>
       <c r="X25" t="n">
-        <v>674.2349604684848</v>
+        <v>598.2197476704891</v>
       </c>
       <c r="Y25" t="n">
-        <v>674.2349604684848</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,28 +6250,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>745.6707680030233</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488384</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>898.7925182488384</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>609.3753482118777</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>447.8017392184324</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.8017392184324</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3806.831696841473</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C31" t="n">
-        <v>3806.831696841473</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>3656.715057429137</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>3656.715057429137</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>3656.715057429137</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3488.539735748958</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.72593422785</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>4317.041446021964</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>4027.624275985003</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>4027.624275985003</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y31" t="n">
-        <v>3806.831696841473</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1475.129678083382</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1475.129678083382</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1475.129678083382</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1335.881268530309</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1112.095853319815</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>822.9672145333731</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>568.2827263274862</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>278.8655562905255</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>278.8655562905255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,10 +7159,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7207,10 +7207,10 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
@@ -7219,7 +7219,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>668.5656656016674</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C40" t="n">
-        <v>499.6294826737605</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D40" t="n">
-        <v>499.6294826737605</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E40" t="n">
-        <v>499.6294826737605</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>499.6294826737605</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
         <v>208.7516828383384</v>
@@ -7362,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>1298.996260473455</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>1071.006709575437</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y40" t="n">
-        <v>850.2141304319072</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7408,13 +7408,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7435,25 +7435,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899126</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7712,43 +7712,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636264</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>542.1367719529251</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7806,52 +7806,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119731</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035283</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.921157035283</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.921157035283</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1052.346521133416</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>762.9293510964552</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>762.9293510964552</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>542.1367719529251</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>148.2747143566552</v>
       </c>
       <c r="L18" t="n">
-        <v>360.5026862907246</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776733</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>87.16935584025373</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>171.2966883299264</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928253</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776707</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445199</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.24130101521209</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>44.31532661885205</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.75201340998615</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>107.6866326816753</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>48.8408432116525</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>86.3615111188052</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>27.31007019928686</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24423,7 +24423,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>204.1926528530993</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>47.67516803624228</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>65.75178248552632</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>119.8233299535759</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24894,7 +24894,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>86.41562585401809</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>36.51615797628597</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>113.5373859051897</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>27.43837499384583</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.9187537809795</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856805.715276347</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547440.6836327915</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="I2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="L2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="F2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547440.6836327917</v>
+      </c>
+      <c r="O2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="H2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327917</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327921</v>
-      </c>
       <c r="P2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.8367399914423e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="G4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="G4" t="n">
-        <v>36432.48351773393</v>
-      </c>
       <c r="H4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36432.48351773393</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="L4" t="n">
+        <v>36432.48351773397</v>
+      </c>
+      <c r="M4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="M4" t="n">
-        <v>36432.48351773397</v>
-      </c>
       <c r="N4" t="n">
-        <v>36432.483517734</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773397</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773385</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281446.4052300831</v>
+        <v>-281446.405230083</v>
       </c>
       <c r="C6" t="n">
-        <v>308521.4739844614</v>
+        <v>308521.473984461</v>
       </c>
       <c r="D6" t="n">
         <v>308521.4739844615</v>
       </c>
       <c r="E6" t="n">
-        <v>-106139.1623105548</v>
+        <v>-107113.7535702764</v>
       </c>
       <c r="F6" t="n">
-        <v>419020.8741663417</v>
+        <v>418046.2829066198</v>
       </c>
       <c r="G6" t="n">
-        <v>419020.8741663414</v>
+        <v>418046.2829066192</v>
       </c>
       <c r="H6" t="n">
-        <v>419020.8741663419</v>
+        <v>418046.2829066198</v>
       </c>
       <c r="I6" t="n">
-        <v>419020.8741663416</v>
+        <v>418046.2829066199</v>
       </c>
       <c r="J6" t="n">
-        <v>242597.6549737486</v>
+        <v>241623.0637140273</v>
       </c>
       <c r="K6" t="n">
-        <v>419020.8741663415</v>
+        <v>418046.2829066197</v>
       </c>
       <c r="L6" t="n">
-        <v>419020.8741663416</v>
+        <v>418046.2829066199</v>
       </c>
       <c r="M6" t="n">
-        <v>284219.8589325038</v>
+        <v>283245.2676727827</v>
       </c>
       <c r="N6" t="n">
-        <v>419020.8741663415</v>
+        <v>418046.2829066195</v>
       </c>
       <c r="O6" t="n">
-        <v>419020.8741663415</v>
+        <v>418046.2829066197</v>
       </c>
       <c r="P6" t="n">
-        <v>419020.8741663406</v>
+        <v>418046.2829066197</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26740,31 +26740,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>326.2618471346672</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>27.98162540605469</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>124.9340570840753</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>85.19271039829701</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>23.98522015752656</v>
       </c>
       <c r="X5" t="n">
-        <v>296.2020293175727</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>78.44787441174897</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>1.009001502131891</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>40.90276525462383</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>25.31777693171207</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>44.0625377072414</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="11">
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>298.8501529445944</v>
       </c>
       <c r="L18" t="n">
-        <v>609.760391246749</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336976</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>336.4270607962781</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>504.4912617279393</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221054</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.502597509196</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2164097.851446868</v>
+        <v>2169037.114295902</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800613</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665975</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>39.01104463634039</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>382.8908255841847</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>28.1137484527827</v>
       </c>
       <c r="I4" t="n">
-        <v>10.03156470826291</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>54.02252578980065</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>325.2557485598865</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.11374845278241</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>86.4555139881773</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>313.7802763660591</v>
+        <v>321.2644881507945</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273159</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014456</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670633</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>20.49722302542854</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>104.3001463993603</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274103</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497918</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014456</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670633</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056188</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527406</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532025</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>169.7438101404423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896908</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>203.8435192151892</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>47.94499047072873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532028</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>119.5716530623856</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>116.8645225501837</v>
+        <v>137.2097743050063</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>23.54872654977472</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>24.4066687370483</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>32.89657674137945</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>454.6247955627683</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="3">
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.9658229629848</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>210.9658229629848</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>210.9658229629848</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>210.9658229629848</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F4" t="n">
-        <v>64.07587546507446</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G4" t="n">
-        <v>64.07587546507446</v>
+        <v>264.3261428644633</v>
       </c>
       <c r="H4" t="n">
-        <v>64.07587546507446</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>210.9658229629848</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.9658229629848</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1744.21174165236</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1385.946043045609</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1000.157790447365</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>589.1718856577575</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2368.607930856721</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>2113.174258592771</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4664,25 +4664,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>699.731258496553</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C7" t="n">
-        <v>699.731258496553</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>699.731258496553</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>551.8181649141599</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162495</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
         <v>235.9284171545819</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>699.731258496553</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>699.731258496553</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>699.731258496553</v>
+        <v>463.2366044859801</v>
       </c>
       <c r="T7" t="n">
-        <v>699.731258496553</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="U7" t="n">
-        <v>699.731258496553</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="V7" t="n">
-        <v>699.731258496553</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W7" t="n">
-        <v>699.731258496553</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X7" t="n">
-        <v>699.731258496553</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.731258496553</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1704.018810322078</v>
+        <v>768.2839875620903</v>
       </c>
       <c r="C8" t="n">
-        <v>1335.056293381666</v>
+        <v>399.3214706216785</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.6186503862</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>2090.6186503862</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>2090.6186503862</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
         <v>266.2060027641994</v>
@@ -4944,25 +4944,25 @@
         <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550593</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610182</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003431</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405187</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155795</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805376</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822368</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619122</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643317</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899119</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207821</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014284</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231255</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141858</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465292</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121721</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851607</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590527</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614715</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.708168625643</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277022</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341656</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653861</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.87805691801</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>349.4607221898733</v>
+        <v>710.6134626728253</v>
       </c>
       <c r="C13" t="n">
-        <v>349.4607221898733</v>
+        <v>710.6134626728253</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>710.6134626728253</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904322</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123424</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241953</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799353</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471176</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347405</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609632</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>731.3177283550764</v>
       </c>
       <c r="W13" t="n">
-        <v>531.109187020113</v>
+        <v>731.3177283550764</v>
       </c>
       <c r="X13" t="n">
-        <v>531.109187020113</v>
+        <v>731.3177283550764</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.109187020113</v>
+        <v>731.3177283550764</v>
       </c>
     </row>
     <row r="14">
@@ -5257,67 +5257,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643317</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899119</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207821</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014284</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231255</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141858</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636231</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241953</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799353</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471176</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585713</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557869</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557869</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473421</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262927</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064764855</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182705986</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>241.980548233638</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
     </row>
     <row r="17">
@@ -5491,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182378</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K18" t="n">
-        <v>559.3999450277967</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L18" t="n">
-        <v>806.1650729342607</v>
+        <v>921.1936903636232</v>
       </c>
       <c r="M18" t="n">
-        <v>1113.485206214222</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.347833878255</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799353</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471177</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262957</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765157</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706288</v>
       </c>
       <c r="W19" t="n">
-        <v>496.665036439558</v>
+        <v>325.206642358303</v>
       </c>
       <c r="X19" t="n">
-        <v>268.6754855415407</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,43 +5740,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5867,7 +5867,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5977,43 +5977,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2317.834075963125</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2612.943493278839</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6104,7 +6104,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U25" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765161</v>
       </c>
       <c r="V25" t="n">
-        <v>1115.626468605467</v>
+        <v>531.3977182706293</v>
       </c>
       <c r="W25" t="n">
-        <v>826.2092985685065</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>598.2197476704891</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>598.2197476704891</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X28" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.3285960683721</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="X31" t="n">
-        <v>836.769640042142</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y31" t="n">
-        <v>615.9770608986119</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1475.129678083382</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1475.129678083382</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1475.129678083382</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U34" t="n">
-        <v>1186.001039296941</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1186.001039296941</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W34" t="n">
-        <v>896.58386925998</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X34" t="n">
-        <v>668.5943183619627</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y34" t="n">
-        <v>447.8017392184325</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6967,19 +6967,19 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,25 +7019,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
     <row r="38">
@@ -7153,40 +7153,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7198,25 +7198,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,16 +7241,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,10 +7262,10 @@
         <v>1026.505047571597</v>
       </c>
       <c r="M39" t="n">
-        <v>1333.825180851558</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O39" t="n">
         <v>2112.811595180915</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7627,28 +7627,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201016</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>221.0467526719084</v>
@@ -8698,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229639</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544524</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>288.409182577681</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544524</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>148.2747143566552</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776807</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208121</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>360.502686290725</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>171.2966883299264</v>
+        <v>171.2966883299252</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524670085</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>9.43600753089413e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>159.3347571565088</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>44.31532661885205</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318341839</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>82.39383318338847</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.8408432116525</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>82.39383318338815</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>204.1926528530993</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.39383318338818</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>47.67516803624228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24894,16 +24894,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>108.8451328388535</v>
+        <v>88.49988108403082</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>86.41562585401809</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>194.1779846150465</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542474</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25365,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>113.5373859051897</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,10 +26076,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763461</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763461</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.238904999</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.6836327915</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="G2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="F2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="G2" t="n">
-        <v>547440.6836327915</v>
-      </c>
       <c r="H2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="L2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="M2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="O2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="N2" t="n">
-        <v>547440.6836327917</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.683632792</v>
-      </c>
       <c r="P2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327923</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768943</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.1347463997663e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925941</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338367</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773398</v>
       </c>
       <c r="F4" t="n">
+        <v>36432.48351773398</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36432.48351773406</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36432.48351773406</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36432.48351773406</v>
+      </c>
+      <c r="J4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="L4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="M4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="O4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="P4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="L4" t="n">
-        <v>36432.48351773397</v>
-      </c>
-      <c r="M4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871646</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871646</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871646</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26502,13 +26502,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281446.405230083</v>
+        <v>-281446.4052300829</v>
       </c>
       <c r="C6" t="n">
-        <v>308521.473984461</v>
+        <v>308521.4739844616</v>
       </c>
       <c r="D6" t="n">
-        <v>308521.4739844615</v>
+        <v>308521.4739844613</v>
       </c>
       <c r="E6" t="n">
-        <v>-107113.7535702764</v>
+        <v>-106236.6214365254</v>
       </c>
       <c r="F6" t="n">
-        <v>418046.2829066198</v>
+        <v>418923.4150403692</v>
       </c>
       <c r="G6" t="n">
-        <v>418046.2829066192</v>
+        <v>418923.4150403694</v>
       </c>
       <c r="H6" t="n">
-        <v>418046.2829066198</v>
+        <v>418923.4150403684</v>
       </c>
       <c r="I6" t="n">
-        <v>418046.2829066199</v>
+        <v>418923.4150403693</v>
       </c>
       <c r="J6" t="n">
-        <v>241623.0637140273</v>
+        <v>242500.1958477748</v>
       </c>
       <c r="K6" t="n">
-        <v>418046.2829066197</v>
+        <v>418923.4150403691</v>
       </c>
       <c r="L6" t="n">
-        <v>418046.2829066199</v>
+        <v>418923.4150403694</v>
       </c>
       <c r="M6" t="n">
-        <v>283245.2676727827</v>
+        <v>284122.3998065325</v>
       </c>
       <c r="N6" t="n">
-        <v>418046.2829066195</v>
+        <v>418923.4150403692</v>
       </c>
       <c r="O6" t="n">
-        <v>418046.2829066197</v>
+        <v>418923.4150403693</v>
       </c>
       <c r="P6" t="n">
-        <v>418046.2829066197</v>
+        <v>418923.4150403696</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,37 +26746,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054540986</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054540986</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054540987</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054540987</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054540987</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,16 +26795,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.638741237012</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990155</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990155</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990155</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
     </row>
   </sheetData>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>326.2618471346672</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>23.98522015752673</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="I4" t="n">
-        <v>124.9340570840753</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>359.7616442309944</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>23.98522015752656</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.009001502131891</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>40.90276525462383</v>
+        <v>33.41855346988848</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>9.180212146020494e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28526,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-3.044770361763464e-11</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961198</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041479</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565507</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540874</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104634</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127052</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.747805621573</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358977</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458542</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361475</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081161</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990342</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298621</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337656</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892232</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351798</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961198</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041479</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565507</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540874</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104634</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127052</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.747805621573</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358977</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458542</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361475</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081161</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990342</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298621</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337656</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892232</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351798</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415073</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221104</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095146</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490634</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560235</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734293</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415654</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411073</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507365</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556532</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206024</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718745</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415073</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221104</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095146</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349768</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560235</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980119</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411073</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092049</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556532</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206024</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.38360061177</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718745</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K18" t="n">
-        <v>298.8501529445944</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092047</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523362</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686844</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>642.8663885318332</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>509.9122281478575</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>504.4912617279393</v>
+        <v>504.4912617279381</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38107,19 +38107,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
